--- a/SGSST/SG-SST AÑO 2023/19_Indicadores segun Resolucion 0312/6_Indicador Ausentismo por causa médica.xlsx
+++ b/SGSST/SG-SST AÑO 2023/19_Indicadores segun Resolucion 0312/6_Indicador Ausentismo por causa médica.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dayana Git\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\Indicadores segun Resolucion 0312\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GitHub\Excavaciones-Corrrea-Mejia\SGSST\SG-SST AÑO 2023\19_Indicadores segun Resolucion 0312\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2740C126-5C94-4E2E-BAD4-6E687E2736CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$M$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>usuario</author>
   </authors>
   <commentList>
-    <comment ref="J12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{8D081DD3-F970-4BBD-8936-1AE484621195}">
       <text>
         <r>
           <rPr>
@@ -47,11 +48,15 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Enfermedad general</t>
+          <t>Cesar Esteban Tumal Velasquez
+CC 1193470054
+DX: S623 Fractura de otros huesos metacarpianos
+Origen Comun - SOAT
+Desde 02/07/2023 al 31/07/2023</t>
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="0" shapeId="0">
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +231,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,6 +520,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,16 +574,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,7 +645,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -729,7 +736,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1902,14 +1908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1921,122 +1927,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="23" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
+      <c r="H8" s="27"/>
+      <c r="I8" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="11" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
@@ -2080,13 +2086,27 @@
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>30</v>
+      </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2094,7 +2114,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="12">
         <f>SUM(B12:M12)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -2103,29 +2123,32 @@
       </c>
       <c r="B13" s="2">
         <f>B36*B37</f>
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="C13" s="2">
         <f>C36*C37</f>
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ref="D13:I13" si="0">D36*D37</f>
-        <v>372</v>
+        <f t="shared" ref="D13:H13" si="0">D36*D37</f>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>330</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2133,36 +2156,36 @@
       <c r="M13" s="2"/>
       <c r="N13" s="12">
         <f>SUM(B13:M13)</f>
-        <v>2048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="10" t="str">
         <f>IFERROR((B12/B13)*100,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="10">
+        <v/>
+      </c>
+      <c r="C14" s="10" t="str">
         <f t="shared" ref="C14:F14" si="1">IFERROR((C12/C13)*100,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="10">
+        <v/>
+      </c>
+      <c r="D14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
+        <v/>
+      </c>
+      <c r="E14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
+        <v/>
+      </c>
+      <c r="F14" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
+        <v/>
+      </c>
+      <c r="G14" s="10" t="str">
         <f>IFERROR((G12/G13)*100,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="H14" s="10" t="str">
         <f>IFERROR((H12/H13)*100,"")</f>
@@ -2188,128 +2211,128 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="10" t="str">
         <f>IFERROR((N12/N13)*100,"")</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="19"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="19"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="33" spans="1:13" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:13" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
@@ -2354,40 +2377,40 @@
       <c r="A36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="31">
         <v>31</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="31">
         <v>28</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="31">
         <v>31</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="31">
         <v>30</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="31">
         <v>31</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="31">
         <v>30</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="31">
         <v>31</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="31">
         <v>31</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="31">
         <v>30</v>
       </c>
-      <c r="K36" s="8">
+      <c r="K36" s="31">
         <v>31</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="31">
         <v>30</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="31">
         <v>31</v>
       </c>
     </row>
@@ -2395,24 +2418,12 @@
       <c r="A37" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="11">
-        <v>10</v>
-      </c>
-      <c r="C37" s="11">
-        <v>13</v>
-      </c>
-      <c r="D37" s="11">
-        <v>12</v>
-      </c>
-      <c r="E37" s="11">
-        <v>10</v>
-      </c>
-      <c r="F37" s="11">
-        <v>12</v>
-      </c>
-      <c r="G37" s="11">
-        <v>11</v>
-      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
@@ -2423,6 +2434,11 @@
     <row r="38" spans="1:13" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A33:M33"/>
+    <mergeCell ref="I16:M29"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="I8:M8"/>
     <mergeCell ref="B7:M7"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="K1:M1"/>
@@ -2431,11 +2447,6 @@
     <mergeCell ref="B6:M6"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="A33:M33"/>
-    <mergeCell ref="I16:M29"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="I8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="76" fitToHeight="0" orientation="landscape" verticalDpi="203" r:id="rId1"/>
